--- a/tabs/t1_typeset.xlsx
+++ b/tabs/t1_typeset.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brendankelly/Downloads/m_subglottic-suction-VAE/tabs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brendank\Downloads\Subglottic-suction-frequency-and-adverse-events-during-mechanical-ventilation\tabs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88475AD1-7B9F-9A42-A151-403D1A752D76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2778" yWindow="1560" windowWidth="28038" windowHeight="17442"/>
   </bookViews>
   <sheets>
     <sheet name="t1_ss1" sheetId="2" r:id="rId1"/>
@@ -406,8 +405,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -554,9 +553,16 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="10"/>
       <color rgb="FF333333"/>
-      <name val="Roboto"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -923,23 +929,8 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -955,6 +946,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1310,742 +1316,740 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E45"/>
+      <selection activeCell="E45" sqref="A1:E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="25.5" style="11" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="11" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="11"/>
+    <col min="1" max="1" width="25.5" style="6" customWidth="1"/>
+    <col min="2" max="4" width="17.6484375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="8.34765625" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="10.84765625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="24.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="11">
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11">
         <v>0.35</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:5" s="2" customFormat="1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" s="2" customFormat="1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" s="2" customFormat="1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" s="2" customFormat="1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:5" s="2" customFormat="1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" s="2" customFormat="1" ht="24.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="11">
         <v>0.45</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:5" s="2" customFormat="1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="11">
         <v>0.16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="11">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:13" s="2" customFormat="1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="11">
         <v>0.21</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:13" s="2" customFormat="1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:13" s="2" customFormat="1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="11">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:13" s="2" customFormat="1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:13" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:13" s="2" customFormat="1" ht="24.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="9"/>
-    </row>
-    <row r="22" spans="1:13" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+      <c r="G21" s="3"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" s="2" customFormat="1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="11">
         <v>0.36</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:13" s="2" customFormat="1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="11">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:13" s="2" customFormat="1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="11">
         <v>0.27</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:13" s="2" customFormat="1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="11">
         <v>0.48</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:13" s="2" customFormat="1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="11">
         <v>0.9</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:13" s="2" customFormat="1" ht="24.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="11">
         <v>0.51</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:13" s="2" customFormat="1" ht="24.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="11">
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:13" s="2" customFormat="1" ht="24.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="11">
         <v>0.79</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:13" s="2" customFormat="1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="11">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:13" s="2" customFormat="1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="11">
         <v>0.44</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:13" s="2" customFormat="1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="11">
         <v>0.3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:5" s="2" customFormat="1" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="11">
         <v>0.76</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
+    <row r="34" spans="1:5" s="2" customFormat="1" ht="24.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="11">
         <v>0.67</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:5" s="5" customFormat="1" ht="20.100000000000001" x14ac:dyDescent="0.7">
+      <c r="A35" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="11">
         <v>0.74</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:5" s="5" customFormat="1" ht="20.100000000000001" x14ac:dyDescent="0.7">
+      <c r="A36" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+    <row r="37" spans="1:5" s="5" customFormat="1" ht="20.100000000000001" x14ac:dyDescent="0.7">
+      <c r="A37" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="11">
         <v>0.17</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+    <row r="38" spans="1:5" s="5" customFormat="1" ht="20.100000000000001" x14ac:dyDescent="0.7">
+      <c r="A38" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="24.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="11">
         <v>0.78</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
+    <row r="40" spans="1:5" s="2" customFormat="1" ht="24.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
+    <row r="41" spans="1:5" s="2" customFormat="1" ht="24.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="24.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="11">
         <v>0.45</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
+    <row r="43" spans="1:5" s="2" customFormat="1" ht="24.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
+    <row r="44" spans="1:5" s="2" customFormat="1" ht="24.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="11">
         <v>0.48</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="9" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
+    <row r="45" spans="1:5" s="4" customFormat="1" ht="24.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2056,6 +2060,6 @@
     <mergeCell ref="A20:E20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>